--- a/data/trans_dic/P55_6-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P55_6-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse disponer de un automóvil</t>
+          <t>Población que no puede permitirse disponer de un automóvil (tasa de respuesta: 99,12%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>90,68%</t>
+          <t>90,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>88,33%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>76,04%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>82,09%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>76,37%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>81,4%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>82,08%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>69,68%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>86,18%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>65,99%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>85,74%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>85,03%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>72,81%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>71,04%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,49; 93,21</t>
+          <t>87,38; 93,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>72,68; 79,62</t>
+          <t>84,83; 91,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,91; 84,71</t>
+          <t>71,98; 79,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>66,2; 73,29</t>
+          <t>72,68; 79,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,02; 88,09</t>
+          <t>78,37; 84,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>70,15; 75,29</t>
+          <t>78,17; 85,19</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>65,45; 72,95</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>62,49; 69,25</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>83,43; 87,51</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>82,46; 87,08</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>69,99; 75,17</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>68,49; 73,59</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>90,21%</t>
+          <t>90,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>90,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>86,43%</t>
+          <t>90,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>88,45%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>86,1%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>80,37%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>77,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>88,33%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>83,97%</t>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>72,54%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>88,28%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>85,51%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>83,98%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>80,89%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,88; 93,32</t>
+          <t>85,65; 93,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,01; 93,8</t>
+          <t>87,1; 93,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,69; 88,97</t>
+          <t>85,77; 93,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>70,08; 82,58</t>
+          <t>83,71; 92,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>85,69; 90,49</t>
+          <t>81,97; 89,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>79,91; 87,53</t>
+          <t>74,58; 84,34</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>69,82; 82,57</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>65,3; 79,14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>85,32; 90,45</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>82,08; 88,26</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>80,15; 87,48</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>76,62; 84,99</t>
         </is>
       </c>
     </row>
@@ -761,19 +937,19 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>89,54%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>85,28%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
@@ -781,10 +957,40 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>88,96%</t>
+          <t>85,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>82,01%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>88,83%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>85,85%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -799,19 +1005,19 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,94; 96,61</t>
+          <t>85,76; 95,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>81,28; 94,74</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>78,35; 90,22</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -819,10 +1025,40 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,68; 92,3</t>
+          <t>78,86; 90,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>71,52; 88,28</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>84,83; 92,49</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>79,83; 90,11</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>90,71%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>89,42%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>79,45%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>84,12%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>79,31%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>83,69%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>81,41%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>71,26%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>87,36%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>67,41%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>87,1%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>85,31%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>75,35%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>73,3%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,08; 92,48</t>
+          <t>87,97; 92,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>76,68; 82,47</t>
+          <t>86,92; 91,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81,93; 85,82</t>
+          <t>76,31; 82,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>68,11; 74,48</t>
+          <t>76,22; 82,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>85,77; 88,72</t>
+          <t>81,5; 85,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,27; 77,56</t>
+          <t>78,59; 84,0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>67,53; 74,27</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>64,26; 70,44</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>85,51; 88,48</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>83,34; 87,01</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>73,16; 77,36</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>70,98; 75,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse disponer de un automóvil (tasa de respuesta: 99,12%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>613.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>456.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>528.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>506.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>700.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>544.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>624.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>612.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1313.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1152.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1118.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1451751</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1413927</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>171815</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>170084</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1431895</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1470360</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>162715</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>155243</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2883646</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2884286</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>334529</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>325327</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1401572; 1495376</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1357952; 1461897</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>162642; 179616</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>161875; 177871</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1378513; 1479311</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1400288; 1526179</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>152830; 170357</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>147016; 162917</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2805700; 2942955</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2797345; 2953932</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>321554; 345379</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>313665; 337005</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>469.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>547.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1016.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>810.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>387.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1228435</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1239399</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>64225</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>63573</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1158431</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1101766</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>49467</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>47138</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2386865</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2341165</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>113692</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>110711</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1163561; 1268090</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1190620; 1278247</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>61019; 66685</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>60169; 66317</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1102856; 1199485</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1022442; 1156253</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>44850; 53039</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>42433; 51428</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2306850; 2445605</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2247175; 2416600</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>108512; 118434</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>104858; 116316</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>384163</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>373004</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>339947</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>327132</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>724110</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>700136</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>358658; 400353</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>338620; 394687</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>313047; 358954</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>285300; 352150</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>691510; 753999</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>651045; 734809</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1212.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>925.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>735.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>723.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1390.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1074.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>808.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>782.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2602.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1999.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1543.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1505.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3064348</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3026330</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>236039</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>233656</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2930273</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2899258</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>212182</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>202381</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5994621</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>5925588</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>448221</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>436038</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2974161; 3119920</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2941496; 3091830</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>226706; 244655</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>224544; 241611</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2853483; 3003789</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2798886; 2991367</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>201056; 221147</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>192919; 211478</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5884893; 6089672</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5788314; 6043601</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>435205; 460169</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>422195; 448506</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
